--- a/git commands description.xlsx
+++ b/git commands description.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABEACE02ECB7EBDE51B85BDE589D" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E71F6FF7-17C6-4B52-8DED-9056BF931E5C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05841908-C237-4E47-91DC-7A4896565C97}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>command</t>
   </si>
@@ -129,9 +129,6 @@
     <t>folderi local repository kimi tanıyır</t>
   </si>
   <si>
-    <t>git add</t>
-  </si>
-  <si>
     <t>folderdeki deyisiklikleri taniyir</t>
   </si>
   <si>
@@ -189,13 +186,50 @@
   </si>
   <si>
     <t>gizli faylları da göstərir</t>
+  </si>
+  <si>
+    <r>
+      <t>git commit -m "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commit name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>commitleri listleyir</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>sonra hecbir operation mumkun deyil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +260,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -258,6 +300,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,16 +581,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -580,10 +623,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -640,10 +683,26 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
